--- a/biology/Médecine/Chorée/Chorée.xlsx
+++ b/biology/Médecine/Chorée/Chorée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chor%C3%A9e</t>
+          <t>Chorée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 chorée, sur le Wiktionnaire
 La chorée est une manifestation neurologique faisant partie des mouvements involontaires, anormaux et incontrôlables, pouvant notamment être source d'abasie.
-Elle est définie par la survenue de mouvements incontrôlables non stéréotypés, anarchiques, aléatoires, brusques et irréguliers, de courte durée, de tout ou partie du corps et présents au repos et à l'action[1]. Ces mouvements anormaux surviennent sur un fond d'hypotonie.
+Elle est définie par la survenue de mouvements incontrôlables non stéréotypés, anarchiques, aléatoires, brusques et irréguliers, de courte durée, de tout ou partie du corps et présents au repos et à l'action. Ces mouvements anormaux surviennent sur un fond d'hypotonie.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chor%C3%A9e</t>
+          <t>Chorée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,16 +527,18 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les causes les plus fréquentes sont :
 la chorée de Huntington, maladie génétique se traduisant par des mouvements choréiques et une détérioration intellectuelle progressive ;
 la chorée de Sydenham, ou « danse de Saint-Guy » devenue rare dans certains pays (notamment en France) et survenant dans les suites d'une angine à streptocoque non traitée ;
 le syndrome des antiphospholipides, associé ou non au lupus érythémateux ;
 un accident vasculaire cérébral ;
-une hyperthyroïdie dans sa forme avancée[2].
+une hyperthyroïdie dans sa forme avancée.
 On compte aussi des chorées plus rares, comme :
-la chorée fibrillaire de Morvan se traduisant par un tremblement associé à de la fièvre, une forte insomnie et des hallucinations[3].</t>
+la chorée fibrillaire de Morvan se traduisant par un tremblement associé à de la fièvre, une forte insomnie et des hallucinations.</t>
         </is>
       </c>
     </row>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chor%C3%A9e</t>
+          <t>Chorée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il vise à traiter la cause.
 Les neuroleptiques sont utiles à visée symptomatique.</t>
